--- a/data/input_kehoach.xlsx
+++ b/data/input_kehoach.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNPT_PROJECT\VNPT_Performance_Insights\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNPT_PROJECT\VNPT_Performance_test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE90A1B4-B0C1-4982-8DEE-8E71BE7846D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB589B4-3994-4DC9-A57C-1C540F86B806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7311AB8F-B845-4161-9E6C-EE048F5BC659}"/>
   </bookViews>
@@ -567,7 +567,7 @@
   <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/input_kehoach.xlsx
+++ b/data/input_kehoach.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNPT_PROJECT\VNPT_Performance_test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB589B4-3994-4DC9-A57C-1C540F86B806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1707E7EF-885F-4DE5-BAE5-DA66B861E9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7311AB8F-B845-4161-9E6C-EE048F5BC659}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="47">
   <si>
     <t>ma_nv</t>
   </si>
@@ -159,6 +159,24 @@
   </si>
   <si>
     <t>t12</t>
+  </si>
+  <si>
+    <t>CTV080838</t>
+  </si>
+  <si>
+    <t>CTV080839</t>
+  </si>
+  <si>
+    <t>CTV080850</t>
+  </si>
+  <si>
+    <t>CTV080851</t>
+  </si>
+  <si>
+    <t>VNP080859</t>
+  </si>
+  <si>
+    <t>CTV080855</t>
   </si>
 </sst>
 </file>
@@ -564,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D92ADCF-A0B7-460F-AEF2-0FE05E3E84D3}">
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:N201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2820,6 +2838,6606 @@
         <v>0</v>
       </c>
     </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>32.629999999999995</v>
+      </c>
+      <c r="D52">
+        <v>43.8</v>
+      </c>
+      <c r="E52">
+        <v>63.34</v>
+      </c>
+      <c r="F52">
+        <v>68.28</v>
+      </c>
+      <c r="G52">
+        <v>78.91</v>
+      </c>
+      <c r="H52">
+        <v>92.26</v>
+      </c>
+      <c r="I52">
+        <v>106.13</v>
+      </c>
+      <c r="J52">
+        <v>119.48</v>
+      </c>
+      <c r="K52">
+        <v>141.24</v>
+      </c>
+      <c r="L52">
+        <v>204.17</v>
+      </c>
+      <c r="M52">
+        <v>239.48</v>
+      </c>
+      <c r="N52">
+        <v>303.66000000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>41</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>25.14</v>
+      </c>
+      <c r="D53">
+        <v>28.35</v>
+      </c>
+      <c r="E53">
+        <v>37.31</v>
+      </c>
+      <c r="F53">
+        <v>33.82</v>
+      </c>
+      <c r="G53">
+        <v>36.729999999999997</v>
+      </c>
+      <c r="H53">
+        <v>41.89</v>
+      </c>
+      <c r="I53">
+        <v>47.7</v>
+      </c>
+      <c r="J53">
+        <v>52.51</v>
+      </c>
+      <c r="K53">
+        <v>66.7</v>
+      </c>
+      <c r="L53">
+        <v>121.99</v>
+      </c>
+      <c r="M53">
+        <v>149.41999999999999</v>
+      </c>
+      <c r="N53">
+        <v>205.61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>25.14</v>
+      </c>
+      <c r="D54">
+        <v>28.35</v>
+      </c>
+      <c r="E54">
+        <v>37.31</v>
+      </c>
+      <c r="F54">
+        <v>33.82</v>
+      </c>
+      <c r="G54">
+        <v>36.729999999999997</v>
+      </c>
+      <c r="H54">
+        <v>41.89</v>
+      </c>
+      <c r="I54">
+        <v>47.7</v>
+      </c>
+      <c r="J54">
+        <v>52.51</v>
+      </c>
+      <c r="K54">
+        <v>66.7</v>
+      </c>
+      <c r="L54">
+        <v>121.99</v>
+      </c>
+      <c r="M54">
+        <v>149.41999999999999</v>
+      </c>
+      <c r="N54">
+        <v>205.61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55">
+        <v>3.07</v>
+      </c>
+      <c r="D55">
+        <v>6.88</v>
+      </c>
+      <c r="E55">
+        <v>11.12</v>
+      </c>
+      <c r="F55">
+        <v>15.07</v>
+      </c>
+      <c r="G55">
+        <v>17.98</v>
+      </c>
+      <c r="H55">
+        <v>21.02</v>
+      </c>
+      <c r="I55">
+        <v>24.14</v>
+      </c>
+      <c r="J55">
+        <v>27.33</v>
+      </c>
+      <c r="K55">
+        <v>30.45</v>
+      </c>
+      <c r="L55">
+        <v>33.43</v>
+      </c>
+      <c r="M55">
+        <v>36.549999999999997</v>
+      </c>
+      <c r="N55">
+        <v>39.74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>41</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56">
+        <v>7.93</v>
+      </c>
+      <c r="D56">
+        <v>5.26</v>
+      </c>
+      <c r="E56">
+        <v>6.5</v>
+      </c>
+      <c r="F56">
+        <v>5.38</v>
+      </c>
+      <c r="G56">
+        <v>5.38</v>
+      </c>
+      <c r="H56">
+        <v>9.07</v>
+      </c>
+      <c r="I56">
+        <v>8.48</v>
+      </c>
+      <c r="J56">
+        <v>6.66</v>
+      </c>
+      <c r="K56">
+        <v>12.88</v>
+      </c>
+      <c r="L56">
+        <v>13.48</v>
+      </c>
+      <c r="M56">
+        <v>36.07</v>
+      </c>
+      <c r="N56">
+        <v>54.07</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>41</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>41</v>
+      </c>
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58">
+        <v>4.2200000000000006</v>
+      </c>
+      <c r="D58">
+        <v>3.71</v>
+      </c>
+      <c r="E58">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F58">
+        <v>3.26</v>
+      </c>
+      <c r="G58">
+        <v>3.26</v>
+      </c>
+      <c r="H58">
+        <v>3.49</v>
+      </c>
+      <c r="I58">
+        <v>3.37</v>
+      </c>
+      <c r="J58">
+        <v>3.6</v>
+      </c>
+      <c r="K58">
+        <v>3.26</v>
+      </c>
+      <c r="L58">
+        <v>3.37</v>
+      </c>
+      <c r="M58">
+        <v>3.49</v>
+      </c>
+      <c r="N58">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>41</v>
+      </c>
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D60">
+        <v>9.69</v>
+      </c>
+      <c r="E60">
+        <v>7.87</v>
+      </c>
+      <c r="F60">
+        <v>5.76</v>
+      </c>
+      <c r="G60">
+        <v>5.76</v>
+      </c>
+      <c r="H60">
+        <v>7.23</v>
+      </c>
+      <c r="I60">
+        <v>6.5</v>
+      </c>
+      <c r="J60">
+        <v>7.97</v>
+      </c>
+      <c r="K60">
+        <v>15.76</v>
+      </c>
+      <c r="L60">
+        <v>36.5</v>
+      </c>
+      <c r="M60">
+        <v>37.229999999999997</v>
+      </c>
+      <c r="N60">
+        <v>72.23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>41</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61">
+        <v>5.72</v>
+      </c>
+      <c r="D61">
+        <v>6.81</v>
+      </c>
+      <c r="E61">
+        <v>10.92</v>
+      </c>
+      <c r="F61">
+        <v>8.35</v>
+      </c>
+      <c r="G61">
+        <v>8.35</v>
+      </c>
+      <c r="H61">
+        <v>5.08</v>
+      </c>
+      <c r="I61">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="J61">
+        <v>10.95</v>
+      </c>
+      <c r="K61">
+        <v>8.35</v>
+      </c>
+      <c r="L61">
+        <v>39.21</v>
+      </c>
+      <c r="M61">
+        <v>40.08</v>
+      </c>
+      <c r="N61">
+        <v>40.08</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>41</v>
+      </c>
+      <c r="B62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>41</v>
+      </c>
+      <c r="B63" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>41</v>
+      </c>
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>41</v>
+      </c>
+      <c r="B65" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>41</v>
+      </c>
+      <c r="B66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>41</v>
+      </c>
+      <c r="B67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67">
+        <v>8.49</v>
+      </c>
+      <c r="D67">
+        <v>16.45</v>
+      </c>
+      <c r="E67">
+        <v>27.03</v>
+      </c>
+      <c r="F67">
+        <v>35.46</v>
+      </c>
+      <c r="G67">
+        <v>43.18</v>
+      </c>
+      <c r="H67">
+        <v>51.37</v>
+      </c>
+      <c r="I67">
+        <v>59.43</v>
+      </c>
+      <c r="J67">
+        <v>67.97</v>
+      </c>
+      <c r="K67">
+        <v>75.540000000000006</v>
+      </c>
+      <c r="L67">
+        <v>83.18</v>
+      </c>
+      <c r="M67">
+        <v>91.06</v>
+      </c>
+      <c r="N67">
+        <v>99.05</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>41</v>
+      </c>
+      <c r="B68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68">
+        <v>6.14</v>
+      </c>
+      <c r="D68">
+        <v>10.1</v>
+      </c>
+      <c r="E68">
+        <v>16.14</v>
+      </c>
+      <c r="F68">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G68">
+        <v>24.07</v>
+      </c>
+      <c r="H68">
+        <v>28.3</v>
+      </c>
+      <c r="I68">
+        <v>32.33</v>
+      </c>
+      <c r="J68">
+        <v>36.71</v>
+      </c>
+      <c r="K68">
+        <v>40.26</v>
+      </c>
+      <c r="L68">
+        <v>44.05</v>
+      </c>
+      <c r="M68">
+        <v>47.88</v>
+      </c>
+      <c r="N68">
+        <v>51.73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>41</v>
+      </c>
+      <c r="B69" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69">
+        <v>6.14</v>
+      </c>
+      <c r="D69">
+        <v>10.1</v>
+      </c>
+      <c r="E69">
+        <v>16.14</v>
+      </c>
+      <c r="F69">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G69">
+        <v>24.07</v>
+      </c>
+      <c r="H69">
+        <v>28.3</v>
+      </c>
+      <c r="I69">
+        <v>32.33</v>
+      </c>
+      <c r="J69">
+        <v>36.71</v>
+      </c>
+      <c r="K69">
+        <v>40.26</v>
+      </c>
+      <c r="L69">
+        <v>44.05</v>
+      </c>
+      <c r="M69">
+        <v>47.88</v>
+      </c>
+      <c r="N69">
+        <v>51.73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>41</v>
+      </c>
+      <c r="B70" t="s">
+        <v>21</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>41</v>
+      </c>
+      <c r="B71" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71">
+        <v>2.3200000000000003</v>
+      </c>
+      <c r="D71">
+        <v>4.76</v>
+      </c>
+      <c r="E71">
+        <v>7.47</v>
+      </c>
+      <c r="F71">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="G71">
+        <v>12.48</v>
+      </c>
+      <c r="H71">
+        <v>14.87</v>
+      </c>
+      <c r="I71">
+        <v>17.32</v>
+      </c>
+      <c r="J71">
+        <v>19.82</v>
+      </c>
+      <c r="K71">
+        <v>22.27</v>
+      </c>
+      <c r="L71">
+        <v>24.6</v>
+      </c>
+      <c r="M71">
+        <v>27.05</v>
+      </c>
+      <c r="N71">
+        <v>29.55</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>41</v>
+      </c>
+      <c r="B72" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>41</v>
+      </c>
+      <c r="B73" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73">
+        <v>1.69</v>
+      </c>
+      <c r="D73">
+        <v>2.9699999999999998</v>
+      </c>
+      <c r="E73">
+        <v>4.3900000000000006</v>
+      </c>
+      <c r="F73">
+        <v>5.83</v>
+      </c>
+      <c r="G73">
+        <v>7.02</v>
+      </c>
+      <c r="H73">
+        <v>8.27</v>
+      </c>
+      <c r="I73">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="J73">
+        <v>10.87</v>
+      </c>
+      <c r="K73">
+        <v>12.15</v>
+      </c>
+      <c r="L73">
+        <v>13.37</v>
+      </c>
+      <c r="M73">
+        <v>14.65</v>
+      </c>
+      <c r="N73">
+        <v>15.97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>41</v>
+      </c>
+      <c r="B74" t="s">
+        <v>25</v>
+      </c>
+      <c r="C74">
+        <v>1.34</v>
+      </c>
+      <c r="D74">
+        <v>1.62</v>
+      </c>
+      <c r="E74">
+        <v>2.0300000000000002</v>
+      </c>
+      <c r="F74">
+        <v>2.3200000000000003</v>
+      </c>
+      <c r="G74">
+        <v>2.6100000000000003</v>
+      </c>
+      <c r="H74">
+        <v>2.9299999999999997</v>
+      </c>
+      <c r="I74">
+        <v>3.23</v>
+      </c>
+      <c r="J74">
+        <v>3.57</v>
+      </c>
+      <c r="K74">
+        <v>3.86</v>
+      </c>
+      <c r="L74">
+        <v>4.16</v>
+      </c>
+      <c r="M74">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="N74">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>41</v>
+      </c>
+      <c r="B75" t="s">
+        <v>26</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>41</v>
+      </c>
+      <c r="B76" t="s">
+        <v>27</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>42</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77">
+        <v>33.629999999999995</v>
+      </c>
+      <c r="D77">
+        <v>44.8</v>
+      </c>
+      <c r="E77">
+        <v>64.34</v>
+      </c>
+      <c r="F77">
+        <v>69.28</v>
+      </c>
+      <c r="G77">
+        <v>79.91</v>
+      </c>
+      <c r="H77">
+        <v>93.26</v>
+      </c>
+      <c r="I77">
+        <v>107.13</v>
+      </c>
+      <c r="J77">
+        <v>120.48</v>
+      </c>
+      <c r="K77">
+        <v>142.24</v>
+      </c>
+      <c r="L77">
+        <v>205.17</v>
+      </c>
+      <c r="M77">
+        <v>240.48</v>
+      </c>
+      <c r="N77">
+        <v>304.66000000000003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>42</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78">
+        <v>26.14</v>
+      </c>
+      <c r="D78">
+        <v>29.35</v>
+      </c>
+      <c r="E78">
+        <v>38.31</v>
+      </c>
+      <c r="F78">
+        <v>34.82</v>
+      </c>
+      <c r="G78">
+        <v>37.729999999999997</v>
+      </c>
+      <c r="H78">
+        <v>42.89</v>
+      </c>
+      <c r="I78">
+        <v>48.7</v>
+      </c>
+      <c r="J78">
+        <v>53.51</v>
+      </c>
+      <c r="K78">
+        <v>67.7</v>
+      </c>
+      <c r="L78">
+        <v>122.99</v>
+      </c>
+      <c r="M78">
+        <v>150.41999999999999</v>
+      </c>
+      <c r="N78">
+        <v>206.61</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>42</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79">
+        <v>26.14</v>
+      </c>
+      <c r="D79">
+        <v>29.35</v>
+      </c>
+      <c r="E79">
+        <v>38.31</v>
+      </c>
+      <c r="F79">
+        <v>34.82</v>
+      </c>
+      <c r="G79">
+        <v>37.729999999999997</v>
+      </c>
+      <c r="H79">
+        <v>42.89</v>
+      </c>
+      <c r="I79">
+        <v>48.7</v>
+      </c>
+      <c r="J79">
+        <v>53.51</v>
+      </c>
+      <c r="K79">
+        <v>67.7</v>
+      </c>
+      <c r="L79">
+        <v>122.99</v>
+      </c>
+      <c r="M79">
+        <v>150.41999999999999</v>
+      </c>
+      <c r="N79">
+        <v>206.61</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>42</v>
+      </c>
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80">
+        <v>4.07</v>
+      </c>
+      <c r="D80">
+        <v>7.88</v>
+      </c>
+      <c r="E80">
+        <v>12.12</v>
+      </c>
+      <c r="F80">
+        <v>16.07</v>
+      </c>
+      <c r="G80">
+        <v>18.98</v>
+      </c>
+      <c r="H80">
+        <v>22.02</v>
+      </c>
+      <c r="I80">
+        <v>25.14</v>
+      </c>
+      <c r="J80">
+        <v>28.33</v>
+      </c>
+      <c r="K80">
+        <v>31.45</v>
+      </c>
+      <c r="L80">
+        <v>34.43</v>
+      </c>
+      <c r="M80">
+        <v>37.549999999999997</v>
+      </c>
+      <c r="N80">
+        <v>40.74</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>42</v>
+      </c>
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81">
+        <v>8.93</v>
+      </c>
+      <c r="D81">
+        <v>6.26</v>
+      </c>
+      <c r="E81">
+        <v>7.5</v>
+      </c>
+      <c r="F81">
+        <v>6.38</v>
+      </c>
+      <c r="G81">
+        <v>6.38</v>
+      </c>
+      <c r="H81">
+        <v>10.07</v>
+      </c>
+      <c r="I81">
+        <v>9.48</v>
+      </c>
+      <c r="J81">
+        <v>7.66</v>
+      </c>
+      <c r="K81">
+        <v>13.88</v>
+      </c>
+      <c r="L81">
+        <v>14.48</v>
+      </c>
+      <c r="M81">
+        <v>37.07</v>
+      </c>
+      <c r="N81">
+        <v>55.07</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>42</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>42</v>
+      </c>
+      <c r="B83" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83">
+        <v>5.2200000000000006</v>
+      </c>
+      <c r="D83">
+        <v>4.71</v>
+      </c>
+      <c r="E83">
+        <v>5.9</v>
+      </c>
+      <c r="F83">
+        <v>4.26</v>
+      </c>
+      <c r="G83">
+        <v>4.26</v>
+      </c>
+      <c r="H83">
+        <v>4.49</v>
+      </c>
+      <c r="I83">
+        <v>4.37</v>
+      </c>
+      <c r="J83">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K83">
+        <v>4.26</v>
+      </c>
+      <c r="L83">
+        <v>4.37</v>
+      </c>
+      <c r="M83">
+        <v>4.49</v>
+      </c>
+      <c r="N83">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>42</v>
+      </c>
+      <c r="B84" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>42</v>
+      </c>
+      <c r="B85" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D85">
+        <v>10.69</v>
+      </c>
+      <c r="E85">
+        <v>8.870000000000001</v>
+      </c>
+      <c r="F85">
+        <v>6.76</v>
+      </c>
+      <c r="G85">
+        <v>6.76</v>
+      </c>
+      <c r="H85">
+        <v>8.23</v>
+      </c>
+      <c r="I85">
+        <v>7.5</v>
+      </c>
+      <c r="J85">
+        <v>8.9699999999999989</v>
+      </c>
+      <c r="K85">
+        <v>16.759999999999998</v>
+      </c>
+      <c r="L85">
+        <v>37.5</v>
+      </c>
+      <c r="M85">
+        <v>38.229999999999997</v>
+      </c>
+      <c r="N85">
+        <v>73.23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>42</v>
+      </c>
+      <c r="B86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86">
+        <v>6.72</v>
+      </c>
+      <c r="D86">
+        <v>7.81</v>
+      </c>
+      <c r="E86">
+        <v>11.92</v>
+      </c>
+      <c r="F86">
+        <v>9.35</v>
+      </c>
+      <c r="G86">
+        <v>9.35</v>
+      </c>
+      <c r="H86">
+        <v>6.08</v>
+      </c>
+      <c r="I86">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="J86">
+        <v>11.95</v>
+      </c>
+      <c r="K86">
+        <v>9.35</v>
+      </c>
+      <c r="L86">
+        <v>40.21</v>
+      </c>
+      <c r="M86">
+        <v>41.08</v>
+      </c>
+      <c r="N86">
+        <v>41.08</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>42</v>
+      </c>
+      <c r="B87" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>42</v>
+      </c>
+      <c r="B88" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>42</v>
+      </c>
+      <c r="B89" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>42</v>
+      </c>
+      <c r="B90" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>42</v>
+      </c>
+      <c r="B91" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>42</v>
+      </c>
+      <c r="B92" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92">
+        <v>9.49</v>
+      </c>
+      <c r="D92">
+        <v>17.45</v>
+      </c>
+      <c r="E92">
+        <v>28.03</v>
+      </c>
+      <c r="F92">
+        <v>36.46</v>
+      </c>
+      <c r="G92">
+        <v>44.18</v>
+      </c>
+      <c r="H92">
+        <v>52.37</v>
+      </c>
+      <c r="I92">
+        <v>60.43</v>
+      </c>
+      <c r="J92">
+        <v>68.97</v>
+      </c>
+      <c r="K92">
+        <v>76.540000000000006</v>
+      </c>
+      <c r="L92">
+        <v>84.18</v>
+      </c>
+      <c r="M92">
+        <v>92.06</v>
+      </c>
+      <c r="N92">
+        <v>100.05</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>42</v>
+      </c>
+      <c r="B93" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93">
+        <v>7.14</v>
+      </c>
+      <c r="D93">
+        <v>11.1</v>
+      </c>
+      <c r="E93">
+        <v>17.14</v>
+      </c>
+      <c r="F93">
+        <v>21.1</v>
+      </c>
+      <c r="G93">
+        <v>25.07</v>
+      </c>
+      <c r="H93">
+        <v>29.3</v>
+      </c>
+      <c r="I93">
+        <v>33.33</v>
+      </c>
+      <c r="J93">
+        <v>37.71</v>
+      </c>
+      <c r="K93">
+        <v>41.26</v>
+      </c>
+      <c r="L93">
+        <v>45.05</v>
+      </c>
+      <c r="M93">
+        <v>48.88</v>
+      </c>
+      <c r="N93">
+        <v>52.73</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>42</v>
+      </c>
+      <c r="B94" t="s">
+        <v>20</v>
+      </c>
+      <c r="C94">
+        <v>7.14</v>
+      </c>
+      <c r="D94">
+        <v>11.1</v>
+      </c>
+      <c r="E94">
+        <v>17.14</v>
+      </c>
+      <c r="F94">
+        <v>21.1</v>
+      </c>
+      <c r="G94">
+        <v>25.07</v>
+      </c>
+      <c r="H94">
+        <v>29.3</v>
+      </c>
+      <c r="I94">
+        <v>33.33</v>
+      </c>
+      <c r="J94">
+        <v>37.71</v>
+      </c>
+      <c r="K94">
+        <v>41.26</v>
+      </c>
+      <c r="L94">
+        <v>45.05</v>
+      </c>
+      <c r="M94">
+        <v>48.88</v>
+      </c>
+      <c r="N94">
+        <v>52.73</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>42</v>
+      </c>
+      <c r="B95" t="s">
+        <v>21</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>42</v>
+      </c>
+      <c r="B96" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96">
+        <v>3.3200000000000003</v>
+      </c>
+      <c r="D96">
+        <v>5.76</v>
+      </c>
+      <c r="E96">
+        <v>8.4699999999999989</v>
+      </c>
+      <c r="F96">
+        <v>11.21</v>
+      </c>
+      <c r="G96">
+        <v>13.48</v>
+      </c>
+      <c r="H96">
+        <v>15.87</v>
+      </c>
+      <c r="I96">
+        <v>18.32</v>
+      </c>
+      <c r="J96">
+        <v>20.82</v>
+      </c>
+      <c r="K96">
+        <v>23.27</v>
+      </c>
+      <c r="L96">
+        <v>25.6</v>
+      </c>
+      <c r="M96">
+        <v>28.05</v>
+      </c>
+      <c r="N96">
+        <v>30.55</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>42</v>
+      </c>
+      <c r="B97" t="s">
+        <v>23</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>42</v>
+      </c>
+      <c r="B98" t="s">
+        <v>24</v>
+      </c>
+      <c r="C98">
+        <v>2.69</v>
+      </c>
+      <c r="D98">
+        <v>3.9699999999999998</v>
+      </c>
+      <c r="E98">
+        <v>5.3900000000000006</v>
+      </c>
+      <c r="F98">
+        <v>6.83</v>
+      </c>
+      <c r="G98">
+        <v>8.02</v>
+      </c>
+      <c r="H98">
+        <v>9.27</v>
+      </c>
+      <c r="I98">
+        <v>10.55</v>
+      </c>
+      <c r="J98">
+        <v>11.87</v>
+      </c>
+      <c r="K98">
+        <v>13.15</v>
+      </c>
+      <c r="L98">
+        <v>14.37</v>
+      </c>
+      <c r="M98">
+        <v>15.65</v>
+      </c>
+      <c r="N98">
+        <v>16.97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>42</v>
+      </c>
+      <c r="B99" t="s">
+        <v>25</v>
+      </c>
+      <c r="C99">
+        <v>2.34</v>
+      </c>
+      <c r="D99">
+        <v>2.62</v>
+      </c>
+      <c r="E99">
+        <v>3.0300000000000002</v>
+      </c>
+      <c r="F99">
+        <v>3.3200000000000003</v>
+      </c>
+      <c r="G99">
+        <v>3.6100000000000003</v>
+      </c>
+      <c r="H99">
+        <v>3.9299999999999997</v>
+      </c>
+      <c r="I99">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="J99">
+        <v>4.57</v>
+      </c>
+      <c r="K99">
+        <v>4.8599999999999994</v>
+      </c>
+      <c r="L99">
+        <v>5.16</v>
+      </c>
+      <c r="M99">
+        <v>5.48</v>
+      </c>
+      <c r="N99">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>42</v>
+      </c>
+      <c r="B100" t="s">
+        <v>26</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>42</v>
+      </c>
+      <c r="B101" t="s">
+        <v>27</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>43</v>
+      </c>
+      <c r="B102" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102">
+        <v>31.63</v>
+      </c>
+      <c r="D102">
+        <v>42.8</v>
+      </c>
+      <c r="E102">
+        <v>62.34</v>
+      </c>
+      <c r="F102">
+        <v>67.28</v>
+      </c>
+      <c r="G102">
+        <v>77.91</v>
+      </c>
+      <c r="H102">
+        <v>91.26</v>
+      </c>
+      <c r="I102">
+        <v>105.13</v>
+      </c>
+      <c r="J102">
+        <v>118.48</v>
+      </c>
+      <c r="K102">
+        <v>140.24</v>
+      </c>
+      <c r="L102">
+        <v>203.17</v>
+      </c>
+      <c r="M102">
+        <v>238.48</v>
+      </c>
+      <c r="N102">
+        <v>302.66000000000003</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>43</v>
+      </c>
+      <c r="B103" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103">
+        <v>24.14</v>
+      </c>
+      <c r="D103">
+        <v>27.35</v>
+      </c>
+      <c r="E103">
+        <v>36.31</v>
+      </c>
+      <c r="F103">
+        <v>32.82</v>
+      </c>
+      <c r="G103">
+        <v>35.729999999999997</v>
+      </c>
+      <c r="H103">
+        <v>40.89</v>
+      </c>
+      <c r="I103">
+        <v>46.7</v>
+      </c>
+      <c r="J103">
+        <v>51.51</v>
+      </c>
+      <c r="K103">
+        <v>65.7</v>
+      </c>
+      <c r="L103">
+        <v>120.99</v>
+      </c>
+      <c r="M103">
+        <v>148.41999999999999</v>
+      </c>
+      <c r="N103">
+        <v>204.61</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>43</v>
+      </c>
+      <c r="B104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104">
+        <v>24.14</v>
+      </c>
+      <c r="D104">
+        <v>27.35</v>
+      </c>
+      <c r="E104">
+        <v>36.31</v>
+      </c>
+      <c r="F104">
+        <v>32.82</v>
+      </c>
+      <c r="G104">
+        <v>35.729999999999997</v>
+      </c>
+      <c r="H104">
+        <v>40.89</v>
+      </c>
+      <c r="I104">
+        <v>46.7</v>
+      </c>
+      <c r="J104">
+        <v>51.51</v>
+      </c>
+      <c r="K104">
+        <v>65.7</v>
+      </c>
+      <c r="L104">
+        <v>120.99</v>
+      </c>
+      <c r="M104">
+        <v>148.41999999999999</v>
+      </c>
+      <c r="N104">
+        <v>204.61</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>43</v>
+      </c>
+      <c r="B105" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D105">
+        <v>5.88</v>
+      </c>
+      <c r="E105">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="F105">
+        <v>14.07</v>
+      </c>
+      <c r="G105">
+        <v>16.98</v>
+      </c>
+      <c r="H105">
+        <v>20.02</v>
+      </c>
+      <c r="I105">
+        <v>23.14</v>
+      </c>
+      <c r="J105">
+        <v>26.33</v>
+      </c>
+      <c r="K105">
+        <v>29.45</v>
+      </c>
+      <c r="L105">
+        <v>32.43</v>
+      </c>
+      <c r="M105">
+        <v>35.549999999999997</v>
+      </c>
+      <c r="N105">
+        <v>38.74</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>43</v>
+      </c>
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106">
+        <v>6.93</v>
+      </c>
+      <c r="D106">
+        <v>4.26</v>
+      </c>
+      <c r="E106">
+        <v>5.5</v>
+      </c>
+      <c r="F106">
+        <v>4.38</v>
+      </c>
+      <c r="G106">
+        <v>4.38</v>
+      </c>
+      <c r="H106">
+        <v>8.07</v>
+      </c>
+      <c r="I106">
+        <v>7.48</v>
+      </c>
+      <c r="J106">
+        <v>5.66</v>
+      </c>
+      <c r="K106">
+        <v>11.88</v>
+      </c>
+      <c r="L106">
+        <v>12.48</v>
+      </c>
+      <c r="M106">
+        <v>35.07</v>
+      </c>
+      <c r="N106">
+        <v>53.07</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>43</v>
+      </c>
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>43</v>
+      </c>
+      <c r="B108" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108">
+        <v>3.22</v>
+      </c>
+      <c r="D108">
+        <v>2.71</v>
+      </c>
+      <c r="E108">
+        <v>3.9</v>
+      </c>
+      <c r="F108">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="G108">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="H108">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="I108">
+        <v>2.37</v>
+      </c>
+      <c r="J108">
+        <v>2.6</v>
+      </c>
+      <c r="K108">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="L108">
+        <v>2.37</v>
+      </c>
+      <c r="M108">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="N108">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>43</v>
+      </c>
+      <c r="B109" t="s">
+        <v>10</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>43</v>
+      </c>
+      <c r="B110" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110">
+        <v>7.2</v>
+      </c>
+      <c r="D110">
+        <v>8.69</v>
+      </c>
+      <c r="E110">
+        <v>6.87</v>
+      </c>
+      <c r="F110">
+        <v>4.76</v>
+      </c>
+      <c r="G110">
+        <v>4.76</v>
+      </c>
+      <c r="H110">
+        <v>6.23</v>
+      </c>
+      <c r="I110">
+        <v>5.5</v>
+      </c>
+      <c r="J110">
+        <v>6.97</v>
+      </c>
+      <c r="K110">
+        <v>14.76</v>
+      </c>
+      <c r="L110">
+        <v>35.5</v>
+      </c>
+      <c r="M110">
+        <v>36.229999999999997</v>
+      </c>
+      <c r="N110">
+        <v>71.23</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>43</v>
+      </c>
+      <c r="B111" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111">
+        <v>4.72</v>
+      </c>
+      <c r="D111">
+        <v>5.81</v>
+      </c>
+      <c r="E111">
+        <v>9.92</v>
+      </c>
+      <c r="F111">
+        <v>7.35</v>
+      </c>
+      <c r="G111">
+        <v>7.35</v>
+      </c>
+      <c r="H111">
+        <v>4.08</v>
+      </c>
+      <c r="I111">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="J111">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="K111">
+        <v>7.35</v>
+      </c>
+      <c r="L111">
+        <v>38.21</v>
+      </c>
+      <c r="M111">
+        <v>39.08</v>
+      </c>
+      <c r="N111">
+        <v>39.08</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>43</v>
+      </c>
+      <c r="B112" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>43</v>
+      </c>
+      <c r="B113" t="s">
+        <v>14</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>43</v>
+      </c>
+      <c r="B114" t="s">
+        <v>15</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>43</v>
+      </c>
+      <c r="B115" t="s">
+        <v>16</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>43</v>
+      </c>
+      <c r="B116" t="s">
+        <v>17</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>43</v>
+      </c>
+      <c r="B117" t="s">
+        <v>18</v>
+      </c>
+      <c r="C117">
+        <v>7.49</v>
+      </c>
+      <c r="D117">
+        <v>15.45</v>
+      </c>
+      <c r="E117">
+        <v>26.03</v>
+      </c>
+      <c r="F117">
+        <v>34.46</v>
+      </c>
+      <c r="G117">
+        <v>42.18</v>
+      </c>
+      <c r="H117">
+        <v>50.37</v>
+      </c>
+      <c r="I117">
+        <v>58.43</v>
+      </c>
+      <c r="J117">
+        <v>66.97</v>
+      </c>
+      <c r="K117">
+        <v>74.540000000000006</v>
+      </c>
+      <c r="L117">
+        <v>82.18</v>
+      </c>
+      <c r="M117">
+        <v>90.06</v>
+      </c>
+      <c r="N117">
+        <v>98.05</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>43</v>
+      </c>
+      <c r="B118" t="s">
+        <v>19</v>
+      </c>
+      <c r="C118">
+        <v>5.14</v>
+      </c>
+      <c r="D118">
+        <v>9.1</v>
+      </c>
+      <c r="E118">
+        <v>15.14</v>
+      </c>
+      <c r="F118">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="G118">
+        <v>23.07</v>
+      </c>
+      <c r="H118">
+        <v>27.3</v>
+      </c>
+      <c r="I118">
+        <v>31.33</v>
+      </c>
+      <c r="J118">
+        <v>35.71</v>
+      </c>
+      <c r="K118">
+        <v>39.26</v>
+      </c>
+      <c r="L118">
+        <v>43.05</v>
+      </c>
+      <c r="M118">
+        <v>46.88</v>
+      </c>
+      <c r="N118">
+        <v>50.73</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>43</v>
+      </c>
+      <c r="B119" t="s">
+        <v>20</v>
+      </c>
+      <c r="C119">
+        <v>5.14</v>
+      </c>
+      <c r="D119">
+        <v>9.1</v>
+      </c>
+      <c r="E119">
+        <v>15.14</v>
+      </c>
+      <c r="F119">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="G119">
+        <v>23.07</v>
+      </c>
+      <c r="H119">
+        <v>27.3</v>
+      </c>
+      <c r="I119">
+        <v>31.33</v>
+      </c>
+      <c r="J119">
+        <v>35.71</v>
+      </c>
+      <c r="K119">
+        <v>39.26</v>
+      </c>
+      <c r="L119">
+        <v>43.05</v>
+      </c>
+      <c r="M119">
+        <v>46.88</v>
+      </c>
+      <c r="N119">
+        <v>50.73</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>43</v>
+      </c>
+      <c r="B120" t="s">
+        <v>21</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>43</v>
+      </c>
+      <c r="B121" t="s">
+        <v>22</v>
+      </c>
+      <c r="C121">
+        <v>1.32</v>
+      </c>
+      <c r="D121">
+        <v>3.76</v>
+      </c>
+      <c r="E121">
+        <v>6.47</v>
+      </c>
+      <c r="F121">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="G121">
+        <v>11.48</v>
+      </c>
+      <c r="H121">
+        <v>13.87</v>
+      </c>
+      <c r="I121">
+        <v>16.32</v>
+      </c>
+      <c r="J121">
+        <v>18.82</v>
+      </c>
+      <c r="K121">
+        <v>21.27</v>
+      </c>
+      <c r="L121">
+        <v>23.6</v>
+      </c>
+      <c r="M121">
+        <v>26.05</v>
+      </c>
+      <c r="N121">
+        <v>28.55</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>43</v>
+      </c>
+      <c r="B122" t="s">
+        <v>23</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>43</v>
+      </c>
+      <c r="B123" t="s">
+        <v>24</v>
+      </c>
+      <c r="C123">
+        <v>0.69</v>
+      </c>
+      <c r="D123">
+        <v>1.97</v>
+      </c>
+      <c r="E123">
+        <v>3.39</v>
+      </c>
+      <c r="F123">
+        <v>4.83</v>
+      </c>
+      <c r="G123">
+        <v>6.02</v>
+      </c>
+      <c r="H123">
+        <v>7.27</v>
+      </c>
+      <c r="I123">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="J123">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="K123">
+        <v>11.15</v>
+      </c>
+      <c r="L123">
+        <v>12.37</v>
+      </c>
+      <c r="M123">
+        <v>13.65</v>
+      </c>
+      <c r="N123">
+        <v>14.97</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>43</v>
+      </c>
+      <c r="B124" t="s">
+        <v>25</v>
+      </c>
+      <c r="C124">
+        <v>0.34</v>
+      </c>
+      <c r="D124">
+        <v>0.62</v>
+      </c>
+      <c r="E124">
+        <v>1.03</v>
+      </c>
+      <c r="F124">
+        <v>1.32</v>
+      </c>
+      <c r="G124">
+        <v>1.61</v>
+      </c>
+      <c r="H124">
+        <v>1.93</v>
+      </c>
+      <c r="I124">
+        <v>2.23</v>
+      </c>
+      <c r="J124">
+        <v>2.57</v>
+      </c>
+      <c r="K124">
+        <v>2.86</v>
+      </c>
+      <c r="L124">
+        <v>3.16</v>
+      </c>
+      <c r="M124">
+        <v>3.48</v>
+      </c>
+      <c r="N124">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>43</v>
+      </c>
+      <c r="B125" t="s">
+        <v>26</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>43</v>
+      </c>
+      <c r="B126" t="s">
+        <v>27</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>44</v>
+      </c>
+      <c r="B127" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127">
+        <v>33.629999999999995</v>
+      </c>
+      <c r="D127">
+        <v>44.8</v>
+      </c>
+      <c r="E127">
+        <v>64.34</v>
+      </c>
+      <c r="F127">
+        <v>69.28</v>
+      </c>
+      <c r="G127">
+        <v>79.91</v>
+      </c>
+      <c r="H127">
+        <v>93.26</v>
+      </c>
+      <c r="I127">
+        <v>107.13</v>
+      </c>
+      <c r="J127">
+        <v>120.48</v>
+      </c>
+      <c r="K127">
+        <v>142.24</v>
+      </c>
+      <c r="L127">
+        <v>205.17</v>
+      </c>
+      <c r="M127">
+        <v>240.48</v>
+      </c>
+      <c r="N127">
+        <v>304.66000000000003</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>44</v>
+      </c>
+      <c r="B128" t="s">
+        <v>4</v>
+      </c>
+      <c r="C128">
+        <v>26.14</v>
+      </c>
+      <c r="D128">
+        <v>29.35</v>
+      </c>
+      <c r="E128">
+        <v>38.31</v>
+      </c>
+      <c r="F128">
+        <v>34.82</v>
+      </c>
+      <c r="G128">
+        <v>37.729999999999997</v>
+      </c>
+      <c r="H128">
+        <v>42.89</v>
+      </c>
+      <c r="I128">
+        <v>48.7</v>
+      </c>
+      <c r="J128">
+        <v>53.51</v>
+      </c>
+      <c r="K128">
+        <v>67.7</v>
+      </c>
+      <c r="L128">
+        <v>122.99</v>
+      </c>
+      <c r="M128">
+        <v>150.41999999999999</v>
+      </c>
+      <c r="N128">
+        <v>206.61</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>44</v>
+      </c>
+      <c r="B129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129">
+        <v>26.14</v>
+      </c>
+      <c r="D129">
+        <v>29.35</v>
+      </c>
+      <c r="E129">
+        <v>38.31</v>
+      </c>
+      <c r="F129">
+        <v>34.82</v>
+      </c>
+      <c r="G129">
+        <v>37.729999999999997</v>
+      </c>
+      <c r="H129">
+        <v>42.89</v>
+      </c>
+      <c r="I129">
+        <v>48.7</v>
+      </c>
+      <c r="J129">
+        <v>53.51</v>
+      </c>
+      <c r="K129">
+        <v>67.7</v>
+      </c>
+      <c r="L129">
+        <v>122.99</v>
+      </c>
+      <c r="M129">
+        <v>150.41999999999999</v>
+      </c>
+      <c r="N129">
+        <v>206.61</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>44</v>
+      </c>
+      <c r="B130" t="s">
+        <v>6</v>
+      </c>
+      <c r="C130">
+        <v>4.07</v>
+      </c>
+      <c r="D130">
+        <v>7.88</v>
+      </c>
+      <c r="E130">
+        <v>12.12</v>
+      </c>
+      <c r="F130">
+        <v>16.07</v>
+      </c>
+      <c r="G130">
+        <v>18.98</v>
+      </c>
+      <c r="H130">
+        <v>22.02</v>
+      </c>
+      <c r="I130">
+        <v>25.14</v>
+      </c>
+      <c r="J130">
+        <v>28.33</v>
+      </c>
+      <c r="K130">
+        <v>31.45</v>
+      </c>
+      <c r="L130">
+        <v>34.43</v>
+      </c>
+      <c r="M130">
+        <v>37.549999999999997</v>
+      </c>
+      <c r="N130">
+        <v>40.74</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>44</v>
+      </c>
+      <c r="B131" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131">
+        <v>8.93</v>
+      </c>
+      <c r="D131">
+        <v>6.26</v>
+      </c>
+      <c r="E131">
+        <v>7.5</v>
+      </c>
+      <c r="F131">
+        <v>6.38</v>
+      </c>
+      <c r="G131">
+        <v>6.38</v>
+      </c>
+      <c r="H131">
+        <v>10.07</v>
+      </c>
+      <c r="I131">
+        <v>9.48</v>
+      </c>
+      <c r="J131">
+        <v>7.66</v>
+      </c>
+      <c r="K131">
+        <v>13.88</v>
+      </c>
+      <c r="L131">
+        <v>14.48</v>
+      </c>
+      <c r="M131">
+        <v>37.07</v>
+      </c>
+      <c r="N131">
+        <v>55.07</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>44</v>
+      </c>
+      <c r="B132" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>44</v>
+      </c>
+      <c r="B133" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133">
+        <v>5.2200000000000006</v>
+      </c>
+      <c r="D133">
+        <v>4.71</v>
+      </c>
+      <c r="E133">
+        <v>5.9</v>
+      </c>
+      <c r="F133">
+        <v>4.26</v>
+      </c>
+      <c r="G133">
+        <v>4.26</v>
+      </c>
+      <c r="H133">
+        <v>4.49</v>
+      </c>
+      <c r="I133">
+        <v>4.37</v>
+      </c>
+      <c r="J133">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K133">
+        <v>4.26</v>
+      </c>
+      <c r="L133">
+        <v>4.37</v>
+      </c>
+      <c r="M133">
+        <v>4.49</v>
+      </c>
+      <c r="N133">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>44</v>
+      </c>
+      <c r="B134" t="s">
+        <v>10</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>44</v>
+      </c>
+      <c r="B135" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D135">
+        <v>10.69</v>
+      </c>
+      <c r="E135">
+        <v>8.870000000000001</v>
+      </c>
+      <c r="F135">
+        <v>6.76</v>
+      </c>
+      <c r="G135">
+        <v>6.76</v>
+      </c>
+      <c r="H135">
+        <v>8.23</v>
+      </c>
+      <c r="I135">
+        <v>7.5</v>
+      </c>
+      <c r="J135">
+        <v>8.9699999999999989</v>
+      </c>
+      <c r="K135">
+        <v>16.759999999999998</v>
+      </c>
+      <c r="L135">
+        <v>37.5</v>
+      </c>
+      <c r="M135">
+        <v>38.229999999999997</v>
+      </c>
+      <c r="N135">
+        <v>73.23</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>44</v>
+      </c>
+      <c r="B136" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136">
+        <v>6.72</v>
+      </c>
+      <c r="D136">
+        <v>7.81</v>
+      </c>
+      <c r="E136">
+        <v>11.92</v>
+      </c>
+      <c r="F136">
+        <v>9.35</v>
+      </c>
+      <c r="G136">
+        <v>9.35</v>
+      </c>
+      <c r="H136">
+        <v>6.08</v>
+      </c>
+      <c r="I136">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="J136">
+        <v>11.95</v>
+      </c>
+      <c r="K136">
+        <v>9.35</v>
+      </c>
+      <c r="L136">
+        <v>40.21</v>
+      </c>
+      <c r="M136">
+        <v>41.08</v>
+      </c>
+      <c r="N136">
+        <v>41.08</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>44</v>
+      </c>
+      <c r="B137" t="s">
+        <v>13</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>44</v>
+      </c>
+      <c r="B138" t="s">
+        <v>14</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>44</v>
+      </c>
+      <c r="B139" t="s">
+        <v>15</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>44</v>
+      </c>
+      <c r="B140" t="s">
+        <v>16</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>44</v>
+      </c>
+      <c r="B141" t="s">
+        <v>17</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>44</v>
+      </c>
+      <c r="B142" t="s">
+        <v>18</v>
+      </c>
+      <c r="C142">
+        <v>9.49</v>
+      </c>
+      <c r="D142">
+        <v>17.45</v>
+      </c>
+      <c r="E142">
+        <v>28.03</v>
+      </c>
+      <c r="F142">
+        <v>36.46</v>
+      </c>
+      <c r="G142">
+        <v>44.18</v>
+      </c>
+      <c r="H142">
+        <v>52.37</v>
+      </c>
+      <c r="I142">
+        <v>60.43</v>
+      </c>
+      <c r="J142">
+        <v>68.97</v>
+      </c>
+      <c r="K142">
+        <v>76.540000000000006</v>
+      </c>
+      <c r="L142">
+        <v>84.18</v>
+      </c>
+      <c r="M142">
+        <v>92.06</v>
+      </c>
+      <c r="N142">
+        <v>100.05</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>44</v>
+      </c>
+      <c r="B143" t="s">
+        <v>19</v>
+      </c>
+      <c r="C143">
+        <v>7.14</v>
+      </c>
+      <c r="D143">
+        <v>11.1</v>
+      </c>
+      <c r="E143">
+        <v>17.14</v>
+      </c>
+      <c r="F143">
+        <v>21.1</v>
+      </c>
+      <c r="G143">
+        <v>25.07</v>
+      </c>
+      <c r="H143">
+        <v>29.3</v>
+      </c>
+      <c r="I143">
+        <v>33.33</v>
+      </c>
+      <c r="J143">
+        <v>37.71</v>
+      </c>
+      <c r="K143">
+        <v>41.26</v>
+      </c>
+      <c r="L143">
+        <v>45.05</v>
+      </c>
+      <c r="M143">
+        <v>48.88</v>
+      </c>
+      <c r="N143">
+        <v>52.73</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>44</v>
+      </c>
+      <c r="B144" t="s">
+        <v>20</v>
+      </c>
+      <c r="C144">
+        <v>7.14</v>
+      </c>
+      <c r="D144">
+        <v>11.1</v>
+      </c>
+      <c r="E144">
+        <v>17.14</v>
+      </c>
+      <c r="F144">
+        <v>21.1</v>
+      </c>
+      <c r="G144">
+        <v>25.07</v>
+      </c>
+      <c r="H144">
+        <v>29.3</v>
+      </c>
+      <c r="I144">
+        <v>33.33</v>
+      </c>
+      <c r="J144">
+        <v>37.71</v>
+      </c>
+      <c r="K144">
+        <v>41.26</v>
+      </c>
+      <c r="L144">
+        <v>45.05</v>
+      </c>
+      <c r="M144">
+        <v>48.88</v>
+      </c>
+      <c r="N144">
+        <v>52.73</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>44</v>
+      </c>
+      <c r="B145" t="s">
+        <v>21</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>44</v>
+      </c>
+      <c r="B146" t="s">
+        <v>22</v>
+      </c>
+      <c r="C146">
+        <v>3.3200000000000003</v>
+      </c>
+      <c r="D146">
+        <v>5.76</v>
+      </c>
+      <c r="E146">
+        <v>8.4699999999999989</v>
+      </c>
+      <c r="F146">
+        <v>11.21</v>
+      </c>
+      <c r="G146">
+        <v>13.48</v>
+      </c>
+      <c r="H146">
+        <v>15.87</v>
+      </c>
+      <c r="I146">
+        <v>18.32</v>
+      </c>
+      <c r="J146">
+        <v>20.82</v>
+      </c>
+      <c r="K146">
+        <v>23.27</v>
+      </c>
+      <c r="L146">
+        <v>25.6</v>
+      </c>
+      <c r="M146">
+        <v>28.05</v>
+      </c>
+      <c r="N146">
+        <v>30.55</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>44</v>
+      </c>
+      <c r="B147" t="s">
+        <v>23</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>44</v>
+      </c>
+      <c r="B148" t="s">
+        <v>24</v>
+      </c>
+      <c r="C148">
+        <v>2.69</v>
+      </c>
+      <c r="D148">
+        <v>3.9699999999999998</v>
+      </c>
+      <c r="E148">
+        <v>5.3900000000000006</v>
+      </c>
+      <c r="F148">
+        <v>6.83</v>
+      </c>
+      <c r="G148">
+        <v>8.02</v>
+      </c>
+      <c r="H148">
+        <v>9.27</v>
+      </c>
+      <c r="I148">
+        <v>10.55</v>
+      </c>
+      <c r="J148">
+        <v>11.87</v>
+      </c>
+      <c r="K148">
+        <v>13.15</v>
+      </c>
+      <c r="L148">
+        <v>14.37</v>
+      </c>
+      <c r="M148">
+        <v>15.65</v>
+      </c>
+      <c r="N148">
+        <v>16.97</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>44</v>
+      </c>
+      <c r="B149" t="s">
+        <v>25</v>
+      </c>
+      <c r="C149">
+        <v>2.34</v>
+      </c>
+      <c r="D149">
+        <v>2.62</v>
+      </c>
+      <c r="E149">
+        <v>3.0300000000000002</v>
+      </c>
+      <c r="F149">
+        <v>3.3200000000000003</v>
+      </c>
+      <c r="G149">
+        <v>3.6100000000000003</v>
+      </c>
+      <c r="H149">
+        <v>3.9299999999999997</v>
+      </c>
+      <c r="I149">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="J149">
+        <v>4.57</v>
+      </c>
+      <c r="K149">
+        <v>4.8599999999999994</v>
+      </c>
+      <c r="L149">
+        <v>5.16</v>
+      </c>
+      <c r="M149">
+        <v>5.48</v>
+      </c>
+      <c r="N149">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>44</v>
+      </c>
+      <c r="B150" t="s">
+        <v>26</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>44</v>
+      </c>
+      <c r="B151" t="s">
+        <v>27</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>45</v>
+      </c>
+      <c r="B152" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152">
+        <v>31.63</v>
+      </c>
+      <c r="D152">
+        <v>42.8</v>
+      </c>
+      <c r="E152">
+        <v>62.34</v>
+      </c>
+      <c r="F152">
+        <v>67.28</v>
+      </c>
+      <c r="G152">
+        <v>77.91</v>
+      </c>
+      <c r="H152">
+        <v>91.26</v>
+      </c>
+      <c r="I152">
+        <v>105.13</v>
+      </c>
+      <c r="J152">
+        <v>118.48</v>
+      </c>
+      <c r="K152">
+        <v>140.24</v>
+      </c>
+      <c r="L152">
+        <v>203.17</v>
+      </c>
+      <c r="M152">
+        <v>238.48</v>
+      </c>
+      <c r="N152">
+        <v>302.66000000000003</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>45</v>
+      </c>
+      <c r="B153" t="s">
+        <v>4</v>
+      </c>
+      <c r="C153">
+        <v>24.14</v>
+      </c>
+      <c r="D153">
+        <v>27.35</v>
+      </c>
+      <c r="E153">
+        <v>36.31</v>
+      </c>
+      <c r="F153">
+        <v>32.82</v>
+      </c>
+      <c r="G153">
+        <v>35.729999999999997</v>
+      </c>
+      <c r="H153">
+        <v>40.89</v>
+      </c>
+      <c r="I153">
+        <v>46.7</v>
+      </c>
+      <c r="J153">
+        <v>51.51</v>
+      </c>
+      <c r="K153">
+        <v>65.7</v>
+      </c>
+      <c r="L153">
+        <v>120.99</v>
+      </c>
+      <c r="M153">
+        <v>148.41999999999999</v>
+      </c>
+      <c r="N153">
+        <v>204.61</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>45</v>
+      </c>
+      <c r="B154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154">
+        <v>24.14</v>
+      </c>
+      <c r="D154">
+        <v>27.35</v>
+      </c>
+      <c r="E154">
+        <v>36.31</v>
+      </c>
+      <c r="F154">
+        <v>32.82</v>
+      </c>
+      <c r="G154">
+        <v>35.729999999999997</v>
+      </c>
+      <c r="H154">
+        <v>40.89</v>
+      </c>
+      <c r="I154">
+        <v>46.7</v>
+      </c>
+      <c r="J154">
+        <v>51.51</v>
+      </c>
+      <c r="K154">
+        <v>65.7</v>
+      </c>
+      <c r="L154">
+        <v>120.99</v>
+      </c>
+      <c r="M154">
+        <v>148.41999999999999</v>
+      </c>
+      <c r="N154">
+        <v>204.61</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>45</v>
+      </c>
+      <c r="B155" t="s">
+        <v>6</v>
+      </c>
+      <c r="C155">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D155">
+        <v>5.88</v>
+      </c>
+      <c r="E155">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="F155">
+        <v>14.07</v>
+      </c>
+      <c r="G155">
+        <v>16.98</v>
+      </c>
+      <c r="H155">
+        <v>20.02</v>
+      </c>
+      <c r="I155">
+        <v>23.14</v>
+      </c>
+      <c r="J155">
+        <v>26.33</v>
+      </c>
+      <c r="K155">
+        <v>29.45</v>
+      </c>
+      <c r="L155">
+        <v>32.43</v>
+      </c>
+      <c r="M155">
+        <v>35.549999999999997</v>
+      </c>
+      <c r="N155">
+        <v>38.74</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>45</v>
+      </c>
+      <c r="B156" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156">
+        <v>6.93</v>
+      </c>
+      <c r="D156">
+        <v>4.26</v>
+      </c>
+      <c r="E156">
+        <v>5.5</v>
+      </c>
+      <c r="F156">
+        <v>4.38</v>
+      </c>
+      <c r="G156">
+        <v>4.38</v>
+      </c>
+      <c r="H156">
+        <v>8.07</v>
+      </c>
+      <c r="I156">
+        <v>7.48</v>
+      </c>
+      <c r="J156">
+        <v>5.66</v>
+      </c>
+      <c r="K156">
+        <v>11.88</v>
+      </c>
+      <c r="L156">
+        <v>12.48</v>
+      </c>
+      <c r="M156">
+        <v>35.07</v>
+      </c>
+      <c r="N156">
+        <v>53.07</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>45</v>
+      </c>
+      <c r="B157" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>45</v>
+      </c>
+      <c r="B158" t="s">
+        <v>9</v>
+      </c>
+      <c r="C158">
+        <v>3.22</v>
+      </c>
+      <c r="D158">
+        <v>2.71</v>
+      </c>
+      <c r="E158">
+        <v>3.9</v>
+      </c>
+      <c r="F158">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="G158">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="H158">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="I158">
+        <v>2.37</v>
+      </c>
+      <c r="J158">
+        <v>2.6</v>
+      </c>
+      <c r="K158">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="L158">
+        <v>2.37</v>
+      </c>
+      <c r="M158">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="N158">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>45</v>
+      </c>
+      <c r="B159" t="s">
+        <v>10</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>45</v>
+      </c>
+      <c r="B160" t="s">
+        <v>11</v>
+      </c>
+      <c r="C160">
+        <v>7.2</v>
+      </c>
+      <c r="D160">
+        <v>8.69</v>
+      </c>
+      <c r="E160">
+        <v>6.87</v>
+      </c>
+      <c r="F160">
+        <v>4.76</v>
+      </c>
+      <c r="G160">
+        <v>4.76</v>
+      </c>
+      <c r="H160">
+        <v>6.23</v>
+      </c>
+      <c r="I160">
+        <v>5.5</v>
+      </c>
+      <c r="J160">
+        <v>6.97</v>
+      </c>
+      <c r="K160">
+        <v>14.76</v>
+      </c>
+      <c r="L160">
+        <v>35.5</v>
+      </c>
+      <c r="M160">
+        <v>36.229999999999997</v>
+      </c>
+      <c r="N160">
+        <v>71.23</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>45</v>
+      </c>
+      <c r="B161" t="s">
+        <v>12</v>
+      </c>
+      <c r="C161">
+        <v>4.72</v>
+      </c>
+      <c r="D161">
+        <v>5.81</v>
+      </c>
+      <c r="E161">
+        <v>9.92</v>
+      </c>
+      <c r="F161">
+        <v>7.35</v>
+      </c>
+      <c r="G161">
+        <v>7.35</v>
+      </c>
+      <c r="H161">
+        <v>4.08</v>
+      </c>
+      <c r="I161">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="J161">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="K161">
+        <v>7.35</v>
+      </c>
+      <c r="L161">
+        <v>38.21</v>
+      </c>
+      <c r="M161">
+        <v>39.08</v>
+      </c>
+      <c r="N161">
+        <v>39.08</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>45</v>
+      </c>
+      <c r="B162" t="s">
+        <v>13</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>45</v>
+      </c>
+      <c r="B163" t="s">
+        <v>14</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>45</v>
+      </c>
+      <c r="B164" t="s">
+        <v>15</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>45</v>
+      </c>
+      <c r="B165" t="s">
+        <v>16</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>45</v>
+      </c>
+      <c r="B166" t="s">
+        <v>17</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>45</v>
+      </c>
+      <c r="B167" t="s">
+        <v>18</v>
+      </c>
+      <c r="C167">
+        <v>7.49</v>
+      </c>
+      <c r="D167">
+        <v>15.45</v>
+      </c>
+      <c r="E167">
+        <v>26.03</v>
+      </c>
+      <c r="F167">
+        <v>34.46</v>
+      </c>
+      <c r="G167">
+        <v>42.18</v>
+      </c>
+      <c r="H167">
+        <v>50.37</v>
+      </c>
+      <c r="I167">
+        <v>58.43</v>
+      </c>
+      <c r="J167">
+        <v>66.97</v>
+      </c>
+      <c r="K167">
+        <v>74.540000000000006</v>
+      </c>
+      <c r="L167">
+        <v>82.18</v>
+      </c>
+      <c r="M167">
+        <v>90.06</v>
+      </c>
+      <c r="N167">
+        <v>98.05</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>45</v>
+      </c>
+      <c r="B168" t="s">
+        <v>19</v>
+      </c>
+      <c r="C168">
+        <v>5.14</v>
+      </c>
+      <c r="D168">
+        <v>9.1</v>
+      </c>
+      <c r="E168">
+        <v>15.14</v>
+      </c>
+      <c r="F168">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="G168">
+        <v>23.07</v>
+      </c>
+      <c r="H168">
+        <v>27.3</v>
+      </c>
+      <c r="I168">
+        <v>31.33</v>
+      </c>
+      <c r="J168">
+        <v>35.71</v>
+      </c>
+      <c r="K168">
+        <v>39.26</v>
+      </c>
+      <c r="L168">
+        <v>43.05</v>
+      </c>
+      <c r="M168">
+        <v>46.88</v>
+      </c>
+      <c r="N168">
+        <v>50.73</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>45</v>
+      </c>
+      <c r="B169" t="s">
+        <v>20</v>
+      </c>
+      <c r="C169">
+        <v>5.14</v>
+      </c>
+      <c r="D169">
+        <v>9.1</v>
+      </c>
+      <c r="E169">
+        <v>15.14</v>
+      </c>
+      <c r="F169">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="G169">
+        <v>23.07</v>
+      </c>
+      <c r="H169">
+        <v>27.3</v>
+      </c>
+      <c r="I169">
+        <v>31.33</v>
+      </c>
+      <c r="J169">
+        <v>35.71</v>
+      </c>
+      <c r="K169">
+        <v>39.26</v>
+      </c>
+      <c r="L169">
+        <v>43.05</v>
+      </c>
+      <c r="M169">
+        <v>46.88</v>
+      </c>
+      <c r="N169">
+        <v>50.73</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>45</v>
+      </c>
+      <c r="B170" t="s">
+        <v>21</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+      <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>45</v>
+      </c>
+      <c r="B171" t="s">
+        <v>22</v>
+      </c>
+      <c r="C171">
+        <v>1.32</v>
+      </c>
+      <c r="D171">
+        <v>3.76</v>
+      </c>
+      <c r="E171">
+        <v>6.47</v>
+      </c>
+      <c r="F171">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="G171">
+        <v>11.48</v>
+      </c>
+      <c r="H171">
+        <v>13.87</v>
+      </c>
+      <c r="I171">
+        <v>16.32</v>
+      </c>
+      <c r="J171">
+        <v>18.82</v>
+      </c>
+      <c r="K171">
+        <v>21.27</v>
+      </c>
+      <c r="L171">
+        <v>23.6</v>
+      </c>
+      <c r="M171">
+        <v>26.05</v>
+      </c>
+      <c r="N171">
+        <v>28.55</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>45</v>
+      </c>
+      <c r="B172" t="s">
+        <v>23</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>45</v>
+      </c>
+      <c r="B173" t="s">
+        <v>24</v>
+      </c>
+      <c r="C173">
+        <v>0.69</v>
+      </c>
+      <c r="D173">
+        <v>1.97</v>
+      </c>
+      <c r="E173">
+        <v>3.39</v>
+      </c>
+      <c r="F173">
+        <v>4.83</v>
+      </c>
+      <c r="G173">
+        <v>6.02</v>
+      </c>
+      <c r="H173">
+        <v>7.27</v>
+      </c>
+      <c r="I173">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="J173">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="K173">
+        <v>11.15</v>
+      </c>
+      <c r="L173">
+        <v>12.37</v>
+      </c>
+      <c r="M173">
+        <v>13.65</v>
+      </c>
+      <c r="N173">
+        <v>14.97</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>45</v>
+      </c>
+      <c r="B174" t="s">
+        <v>25</v>
+      </c>
+      <c r="C174">
+        <v>0.34</v>
+      </c>
+      <c r="D174">
+        <v>0.62</v>
+      </c>
+      <c r="E174">
+        <v>1.03</v>
+      </c>
+      <c r="F174">
+        <v>1.32</v>
+      </c>
+      <c r="G174">
+        <v>1.61</v>
+      </c>
+      <c r="H174">
+        <v>1.93</v>
+      </c>
+      <c r="I174">
+        <v>2.23</v>
+      </c>
+      <c r="J174">
+        <v>2.57</v>
+      </c>
+      <c r="K174">
+        <v>2.86</v>
+      </c>
+      <c r="L174">
+        <v>3.16</v>
+      </c>
+      <c r="M174">
+        <v>3.48</v>
+      </c>
+      <c r="N174">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>45</v>
+      </c>
+      <c r="B175" t="s">
+        <v>26</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>45</v>
+      </c>
+      <c r="B176" t="s">
+        <v>27</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>0</v>
+      </c>
+      <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>46</v>
+      </c>
+      <c r="B177" t="s">
+        <v>3</v>
+      </c>
+      <c r="C177">
+        <v>33.629999999999995</v>
+      </c>
+      <c r="D177">
+        <v>44.8</v>
+      </c>
+      <c r="E177">
+        <v>64.34</v>
+      </c>
+      <c r="F177">
+        <v>69.28</v>
+      </c>
+      <c r="G177">
+        <v>79.91</v>
+      </c>
+      <c r="H177">
+        <v>93.26</v>
+      </c>
+      <c r="I177">
+        <v>107.13</v>
+      </c>
+      <c r="J177">
+        <v>120.48</v>
+      </c>
+      <c r="K177">
+        <v>142.24</v>
+      </c>
+      <c r="L177">
+        <v>205.17</v>
+      </c>
+      <c r="M177">
+        <v>240.48</v>
+      </c>
+      <c r="N177">
+        <v>304.66000000000003</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>46</v>
+      </c>
+      <c r="B178" t="s">
+        <v>4</v>
+      </c>
+      <c r="C178">
+        <v>26.14</v>
+      </c>
+      <c r="D178">
+        <v>29.35</v>
+      </c>
+      <c r="E178">
+        <v>38.31</v>
+      </c>
+      <c r="F178">
+        <v>34.82</v>
+      </c>
+      <c r="G178">
+        <v>37.729999999999997</v>
+      </c>
+      <c r="H178">
+        <v>42.89</v>
+      </c>
+      <c r="I178">
+        <v>48.7</v>
+      </c>
+      <c r="J178">
+        <v>53.51</v>
+      </c>
+      <c r="K178">
+        <v>67.7</v>
+      </c>
+      <c r="L178">
+        <v>122.99</v>
+      </c>
+      <c r="M178">
+        <v>150.41999999999999</v>
+      </c>
+      <c r="N178">
+        <v>206.61</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>46</v>
+      </c>
+      <c r="B179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C179">
+        <v>26.14</v>
+      </c>
+      <c r="D179">
+        <v>29.35</v>
+      </c>
+      <c r="E179">
+        <v>38.31</v>
+      </c>
+      <c r="F179">
+        <v>34.82</v>
+      </c>
+      <c r="G179">
+        <v>37.729999999999997</v>
+      </c>
+      <c r="H179">
+        <v>42.89</v>
+      </c>
+      <c r="I179">
+        <v>48.7</v>
+      </c>
+      <c r="J179">
+        <v>53.51</v>
+      </c>
+      <c r="K179">
+        <v>67.7</v>
+      </c>
+      <c r="L179">
+        <v>122.99</v>
+      </c>
+      <c r="M179">
+        <v>150.41999999999999</v>
+      </c>
+      <c r="N179">
+        <v>206.61</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>46</v>
+      </c>
+      <c r="B180" t="s">
+        <v>6</v>
+      </c>
+      <c r="C180">
+        <v>4.07</v>
+      </c>
+      <c r="D180">
+        <v>7.88</v>
+      </c>
+      <c r="E180">
+        <v>12.12</v>
+      </c>
+      <c r="F180">
+        <v>16.07</v>
+      </c>
+      <c r="G180">
+        <v>18.98</v>
+      </c>
+      <c r="H180">
+        <v>22.02</v>
+      </c>
+      <c r="I180">
+        <v>25.14</v>
+      </c>
+      <c r="J180">
+        <v>28.33</v>
+      </c>
+      <c r="K180">
+        <v>31.45</v>
+      </c>
+      <c r="L180">
+        <v>34.43</v>
+      </c>
+      <c r="M180">
+        <v>37.549999999999997</v>
+      </c>
+      <c r="N180">
+        <v>40.74</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>46</v>
+      </c>
+      <c r="B181" t="s">
+        <v>7</v>
+      </c>
+      <c r="C181">
+        <v>8.93</v>
+      </c>
+      <c r="D181">
+        <v>6.26</v>
+      </c>
+      <c r="E181">
+        <v>7.5</v>
+      </c>
+      <c r="F181">
+        <v>6.38</v>
+      </c>
+      <c r="G181">
+        <v>6.38</v>
+      </c>
+      <c r="H181">
+        <v>10.07</v>
+      </c>
+      <c r="I181">
+        <v>9.48</v>
+      </c>
+      <c r="J181">
+        <v>7.66</v>
+      </c>
+      <c r="K181">
+        <v>13.88</v>
+      </c>
+      <c r="L181">
+        <v>14.48</v>
+      </c>
+      <c r="M181">
+        <v>37.07</v>
+      </c>
+      <c r="N181">
+        <v>55.07</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>46</v>
+      </c>
+      <c r="B182" t="s">
+        <v>8</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <v>0</v>
+      </c>
+      <c r="M182">
+        <v>0</v>
+      </c>
+      <c r="N182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>46</v>
+      </c>
+      <c r="B183" t="s">
+        <v>9</v>
+      </c>
+      <c r="C183">
+        <v>5.2200000000000006</v>
+      </c>
+      <c r="D183">
+        <v>4.71</v>
+      </c>
+      <c r="E183">
+        <v>5.9</v>
+      </c>
+      <c r="F183">
+        <v>4.26</v>
+      </c>
+      <c r="G183">
+        <v>4.26</v>
+      </c>
+      <c r="H183">
+        <v>4.49</v>
+      </c>
+      <c r="I183">
+        <v>4.37</v>
+      </c>
+      <c r="J183">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K183">
+        <v>4.26</v>
+      </c>
+      <c r="L183">
+        <v>4.37</v>
+      </c>
+      <c r="M183">
+        <v>4.49</v>
+      </c>
+      <c r="N183">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>46</v>
+      </c>
+      <c r="B184" t="s">
+        <v>10</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <v>0</v>
+      </c>
+      <c r="M184">
+        <v>0</v>
+      </c>
+      <c r="N184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>46</v>
+      </c>
+      <c r="B185" t="s">
+        <v>11</v>
+      </c>
+      <c r="C185">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D185">
+        <v>10.69</v>
+      </c>
+      <c r="E185">
+        <v>8.870000000000001</v>
+      </c>
+      <c r="F185">
+        <v>6.76</v>
+      </c>
+      <c r="G185">
+        <v>6.76</v>
+      </c>
+      <c r="H185">
+        <v>8.23</v>
+      </c>
+      <c r="I185">
+        <v>7.5</v>
+      </c>
+      <c r="J185">
+        <v>8.9699999999999989</v>
+      </c>
+      <c r="K185">
+        <v>16.759999999999998</v>
+      </c>
+      <c r="L185">
+        <v>37.5</v>
+      </c>
+      <c r="M185">
+        <v>38.229999999999997</v>
+      </c>
+      <c r="N185">
+        <v>73.23</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>46</v>
+      </c>
+      <c r="B186" t="s">
+        <v>12</v>
+      </c>
+      <c r="C186">
+        <v>6.72</v>
+      </c>
+      <c r="D186">
+        <v>7.81</v>
+      </c>
+      <c r="E186">
+        <v>11.92</v>
+      </c>
+      <c r="F186">
+        <v>9.35</v>
+      </c>
+      <c r="G186">
+        <v>9.35</v>
+      </c>
+      <c r="H186">
+        <v>6.08</v>
+      </c>
+      <c r="I186">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="J186">
+        <v>11.95</v>
+      </c>
+      <c r="K186">
+        <v>9.35</v>
+      </c>
+      <c r="L186">
+        <v>40.21</v>
+      </c>
+      <c r="M186">
+        <v>41.08</v>
+      </c>
+      <c r="N186">
+        <v>41.08</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>46</v>
+      </c>
+      <c r="B187" t="s">
+        <v>13</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>0</v>
+      </c>
+      <c r="M187">
+        <v>0</v>
+      </c>
+      <c r="N187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>46</v>
+      </c>
+      <c r="B188" t="s">
+        <v>14</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+      <c r="L188">
+        <v>0</v>
+      </c>
+      <c r="M188">
+        <v>0</v>
+      </c>
+      <c r="N188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>46</v>
+      </c>
+      <c r="B189" t="s">
+        <v>15</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <v>0</v>
+      </c>
+      <c r="M189">
+        <v>0</v>
+      </c>
+      <c r="N189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>46</v>
+      </c>
+      <c r="B190" t="s">
+        <v>16</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+      <c r="L190">
+        <v>0</v>
+      </c>
+      <c r="M190">
+        <v>0</v>
+      </c>
+      <c r="N190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>46</v>
+      </c>
+      <c r="B191" t="s">
+        <v>17</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>0</v>
+      </c>
+      <c r="L191">
+        <v>0</v>
+      </c>
+      <c r="M191">
+        <v>0</v>
+      </c>
+      <c r="N191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>46</v>
+      </c>
+      <c r="B192" t="s">
+        <v>18</v>
+      </c>
+      <c r="C192">
+        <v>9.49</v>
+      </c>
+      <c r="D192">
+        <v>17.45</v>
+      </c>
+      <c r="E192">
+        <v>28.03</v>
+      </c>
+      <c r="F192">
+        <v>36.46</v>
+      </c>
+      <c r="G192">
+        <v>44.18</v>
+      </c>
+      <c r="H192">
+        <v>52.37</v>
+      </c>
+      <c r="I192">
+        <v>60.43</v>
+      </c>
+      <c r="J192">
+        <v>68.97</v>
+      </c>
+      <c r="K192">
+        <v>76.540000000000006</v>
+      </c>
+      <c r="L192">
+        <v>84.18</v>
+      </c>
+      <c r="M192">
+        <v>92.06</v>
+      </c>
+      <c r="N192">
+        <v>100.05</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>46</v>
+      </c>
+      <c r="B193" t="s">
+        <v>19</v>
+      </c>
+      <c r="C193">
+        <v>7.14</v>
+      </c>
+      <c r="D193">
+        <v>11.1</v>
+      </c>
+      <c r="E193">
+        <v>17.14</v>
+      </c>
+      <c r="F193">
+        <v>21.1</v>
+      </c>
+      <c r="G193">
+        <v>25.07</v>
+      </c>
+      <c r="H193">
+        <v>29.3</v>
+      </c>
+      <c r="I193">
+        <v>33.33</v>
+      </c>
+      <c r="J193">
+        <v>37.71</v>
+      </c>
+      <c r="K193">
+        <v>41.26</v>
+      </c>
+      <c r="L193">
+        <v>45.05</v>
+      </c>
+      <c r="M193">
+        <v>48.88</v>
+      </c>
+      <c r="N193">
+        <v>52.73</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>46</v>
+      </c>
+      <c r="B194" t="s">
+        <v>20</v>
+      </c>
+      <c r="C194">
+        <v>7.14</v>
+      </c>
+      <c r="D194">
+        <v>11.1</v>
+      </c>
+      <c r="E194">
+        <v>17.14</v>
+      </c>
+      <c r="F194">
+        <v>21.1</v>
+      </c>
+      <c r="G194">
+        <v>25.07</v>
+      </c>
+      <c r="H194">
+        <v>29.3</v>
+      </c>
+      <c r="I194">
+        <v>33.33</v>
+      </c>
+      <c r="J194">
+        <v>37.71</v>
+      </c>
+      <c r="K194">
+        <v>41.26</v>
+      </c>
+      <c r="L194">
+        <v>45.05</v>
+      </c>
+      <c r="M194">
+        <v>48.88</v>
+      </c>
+      <c r="N194">
+        <v>52.73</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>46</v>
+      </c>
+      <c r="B195" t="s">
+        <v>21</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+      <c r="L195">
+        <v>0</v>
+      </c>
+      <c r="M195">
+        <v>0</v>
+      </c>
+      <c r="N195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>46</v>
+      </c>
+      <c r="B196" t="s">
+        <v>22</v>
+      </c>
+      <c r="C196">
+        <v>3.3200000000000003</v>
+      </c>
+      <c r="D196">
+        <v>5.76</v>
+      </c>
+      <c r="E196">
+        <v>8.4699999999999989</v>
+      </c>
+      <c r="F196">
+        <v>11.21</v>
+      </c>
+      <c r="G196">
+        <v>13.48</v>
+      </c>
+      <c r="H196">
+        <v>15.87</v>
+      </c>
+      <c r="I196">
+        <v>18.32</v>
+      </c>
+      <c r="J196">
+        <v>20.82</v>
+      </c>
+      <c r="K196">
+        <v>23.27</v>
+      </c>
+      <c r="L196">
+        <v>25.6</v>
+      </c>
+      <c r="M196">
+        <v>28.05</v>
+      </c>
+      <c r="N196">
+        <v>30.55</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>46</v>
+      </c>
+      <c r="B197" t="s">
+        <v>23</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
+      <c r="L197">
+        <v>0</v>
+      </c>
+      <c r="M197">
+        <v>0</v>
+      </c>
+      <c r="N197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>46</v>
+      </c>
+      <c r="B198" t="s">
+        <v>24</v>
+      </c>
+      <c r="C198">
+        <v>2.69</v>
+      </c>
+      <c r="D198">
+        <v>3.9699999999999998</v>
+      </c>
+      <c r="E198">
+        <v>5.3900000000000006</v>
+      </c>
+      <c r="F198">
+        <v>6.83</v>
+      </c>
+      <c r="G198">
+        <v>8.02</v>
+      </c>
+      <c r="H198">
+        <v>9.27</v>
+      </c>
+      <c r="I198">
+        <v>10.55</v>
+      </c>
+      <c r="J198">
+        <v>11.87</v>
+      </c>
+      <c r="K198">
+        <v>13.15</v>
+      </c>
+      <c r="L198">
+        <v>14.37</v>
+      </c>
+      <c r="M198">
+        <v>15.65</v>
+      </c>
+      <c r="N198">
+        <v>16.97</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>46</v>
+      </c>
+      <c r="B199" t="s">
+        <v>25</v>
+      </c>
+      <c r="C199">
+        <v>2.34</v>
+      </c>
+      <c r="D199">
+        <v>2.62</v>
+      </c>
+      <c r="E199">
+        <v>3.0300000000000002</v>
+      </c>
+      <c r="F199">
+        <v>3.3200000000000003</v>
+      </c>
+      <c r="G199">
+        <v>3.6100000000000003</v>
+      </c>
+      <c r="H199">
+        <v>3.9299999999999997</v>
+      </c>
+      <c r="I199">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="J199">
+        <v>4.57</v>
+      </c>
+      <c r="K199">
+        <v>4.8599999999999994</v>
+      </c>
+      <c r="L199">
+        <v>5.16</v>
+      </c>
+      <c r="M199">
+        <v>5.48</v>
+      </c>
+      <c r="N199">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>46</v>
+      </c>
+      <c r="B200" t="s">
+        <v>26</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="L200">
+        <v>0</v>
+      </c>
+      <c r="M200">
+        <v>0</v>
+      </c>
+      <c r="N200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>46</v>
+      </c>
+      <c r="B201" t="s">
+        <v>27</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>0</v>
+      </c>
+      <c r="L201">
+        <v>0</v>
+      </c>
+      <c r="M201">
+        <v>0</v>
+      </c>
+      <c r="N201">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
